--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_SELENIUM\ERP_Hybrid\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9EDC34B0-9D58-4833-9D1F-FBDAA82F5258}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5D117664-BE1E-4D1C-A46A-20EA42597202}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{FE95A3C8-182A-4A65-86C0-5021E433C36E}" yWindow="-108"/>
+    <workbookView activeTab="2" firstSheet="1" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{FE95A3C8-182A-4A65-86C0-5021E433C36E}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="72">
   <si>
     <t>TCID</t>
   </si>
@@ -146,27 +146,18 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>\\input</t>
-  </si>
-  <si>
     <t>Click Login button</t>
   </si>
   <si>
     <t>clickAction</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>master</t>
   </si>
   <si>
     <t>Wait for logout link</t>
   </si>
   <si>
-    <t>btnsubmit</t>
-  </si>
-  <si>
     <t>Validate Page button</t>
   </si>
   <si>
@@ -209,13 +200,58 @@
     <t>Enter Category Name</t>
   </si>
   <si>
+    <t>//a[starts-with(text(),'Stock Items ')]</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Category_Name']</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>Click on OK</t>
+  </si>
+  <si>
+    <t>Wait for  Click Ok</t>
+  </si>
+  <si>
+    <t>Validating the Data</t>
+  </si>
+  <si>
+    <t>Wait for confirm ok button</t>
+  </si>
+  <si>
+    <t>Click confirm on OK button</t>
+  </si>
+  <si>
+    <t>CategoryTable</t>
+  </si>
+  <si>
+    <t>Click on ADD Button</t>
+  </si>
+  <si>
+    <t>//button[@id='btnAction']</t>
+  </si>
+  <si>
+    <t>//button[contains(.,'OK!')]</t>
+  </si>
+  <si>
+    <t>(//button[contains(normalize-space(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>//input[@id='password']</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),' Logout')])[2]</t>
+  </si>
+  <si>
+    <t>//button[@id='btnsubmit']</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Block</t>
   </si>
 </sst>
 </file>
@@ -223,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +282,210 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -298,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -309,6 +549,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -625,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5961917-6597-405A-B61F-09565310AB95}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,8 +933,8 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
+      <c r="D2" t="s" s="21">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -671,10 +945,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="41">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -687,9 +961,6 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -701,9 +972,6 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -714,9 +982,6 @@
       </c>
       <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +995,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -798,8 +1063,8 @@
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>58</v>
+      <c r="F3" t="s" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -818,8 +1083,8 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>58</v>
+      <c r="F4" t="s" s="8">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,8 +1103,8 @@
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s" s="6">
-        <v>57</v>
+      <c r="F5" t="s" s="10">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,38 +1118,38 @@
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
+        <v>38</v>
+      </c>
+      <c r="F6" t="s" s="12">
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="11.4" r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>58</v>
+      <c r="F7" t="s" s="14">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -892,20 +1157,22 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -914,36 +1181,38 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="F9" t="s" s="16">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
-        <v>58</v>
+      <c r="F10" t="s" s="18">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -954,25 +1223,22 @@
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
-        <v>58</v>
+      <c r="F11" t="s" s="20">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D6" xr:uid="{FD5229A8-B94F-4CA9-A306-85A94BD0218D}"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA254205-40ED-4D1A-8A7C-C9AC4C7085FF}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +1246,8 @@
     <col min="1" max="1" customWidth="true" width="24.0" collapsed="false"/>
     <col min="2" max="2" customWidth="true" width="15.21875" collapsed="false"/>
     <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="28.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="32.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row ht="18" r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1014,10 +1281,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="F2" t="s" s="22">
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1036,6 +1306,9 @@
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F3" t="s" s="24">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1053,6 +1326,9 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
+      <c r="F4" t="s" s="26">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1070,6 +1346,9 @@
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="F5" t="s" s="28">
+        <v>70</v>
+      </c>
     </row>
     <row customHeight="1" ht="18.600000000000001" r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1082,32 +1361,38 @@
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="F6" t="s" s="30">
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="16.8" r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="F7" t="s" s="32">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -1115,16 +1400,22 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
       <c r="E8">
         <v>10</v>
       </c>
+      <c r="F8" t="s" s="34">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -1134,11 +1425,14 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="F9" t="s" s="36">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -1146,24 +1440,39 @@
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="38">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="40">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -1171,16 +1480,147 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D6" xr:uid="{4B1C5559-D2C2-4E5A-BB20-5187845735B5}"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>